--- a/HC_compposition.xlsx
+++ b/HC_compposition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\_PVT karakterizacija\zadaci\2024-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9108902-6DE0-475F-9220-2726B1E7B460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778BF5E4-CABA-4782-93E2-A2B19143B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="23" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>N2</t>
   </si>
@@ -89,18 +89,6 @@
   </si>
   <si>
     <t>C7+</t>
-  </si>
-  <si>
-    <t>IC4</t>
-  </si>
-  <si>
-    <t>NC4</t>
-  </si>
-  <si>
-    <t>IC5</t>
-  </si>
-  <si>
-    <t>NC5</t>
   </si>
   <si>
     <r>
@@ -166,36 +154,6 @@
       <t>ccf</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -206,19 +164,12 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -287,16 +238,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -308,7 +259,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -712,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDCB0C8-FA0A-4BCD-A2D1-B94589756B6C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -726,271 +677,235 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="5">
         <v>28.02</v>
       </c>
-      <c r="E2" s="6">
+      <c r="D2" s="6">
         <v>33.944000000000003</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5">
         <v>126.2</v>
       </c>
-      <c r="G2" s="7">
+      <c r="F2" s="7">
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10">
         <v>0.02</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="5">
         <v>44.01</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="6">
         <v>73.866</v>
       </c>
-      <c r="F3" s="5">
+      <c r="E3" s="5">
         <v>304.7</v>
       </c>
-      <c r="G3" s="7">
+      <c r="F3" s="7">
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10">
         <v>0.443</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
         <v>16.04</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="6">
         <v>46.042000000000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="E4" s="5">
         <v>190.6</v>
       </c>
-      <c r="G4" s="7">
+      <c r="F4" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10">
         <v>0.14069999999999999</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>30.07</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D5" s="6">
         <v>48.838999999999999</v>
       </c>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
         <v>305.43</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <v>9.8599999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10">
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
         <v>44.09</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D6" s="6">
         <v>42.454999999999998</v>
       </c>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
         <v>369.8</v>
       </c>
-      <c r="G6" s="7">
+      <c r="F6" s="7">
         <v>0.15240000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
         <v>44.09</v>
       </c>
-      <c r="E7" s="6">
+      <c r="D7" s="6">
         <v>36.476999999999997</v>
       </c>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
         <v>408.1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
         <v>0.18479999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10">
         <v>2.6000000000000002E-2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
         <v>58.12</v>
       </c>
-      <c r="E8" s="6">
+      <c r="D8" s="6">
         <v>37.966000000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
         <v>425.2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7">
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10">
         <v>4.0999999999999995E-2</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5">
         <v>58.12</v>
       </c>
-      <c r="E9" s="6">
+      <c r="D9" s="6">
         <v>33.893000000000001</v>
       </c>
-      <c r="F9" s="5">
+      <c r="E9" s="5">
         <v>460.4</v>
       </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7">
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="10">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="5">
         <v>72.150000000000006</v>
       </c>
-      <c r="E10" s="6">
+      <c r="D10" s="6">
         <v>33.701000000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5">
         <v>469.6</v>
       </c>
-      <c r="G10" s="7">
+      <c r="F10" s="7">
         <v>0.251</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="11">
         <v>86.177000000000007</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D11" s="6">
         <v>30.103999999999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
         <v>507.5</v>
       </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7">
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="9">
         <v>0.1303</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <v>156.52000000000001</v>
       </c>
-      <c r="E12" s="8">
+      <c r="D12" s="8">
         <v>22.363</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
         <v>654.30999999999995</v>
       </c>
-      <c r="G12" s="9">
+      <c r="F12" s="9">
         <v>0.50719999999999998</v>
       </c>
     </row>
